--- a/runlog.xlsx
+++ b/runlog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Run</t>
   </si>
@@ -63,6 +63,21 @@
   </si>
   <si>
     <t>Add inlets to VA hospital, OSH</t>
+  </si>
+  <si>
+    <t>BS-04</t>
+  </si>
+  <si>
+    <t>Add inlets to McMillan</t>
+  </si>
+  <si>
+    <t>Based on</t>
+  </si>
+  <si>
+    <t>BS-05</t>
+  </si>
+  <si>
+    <t>Increase inlet assump to 2.5</t>
   </si>
 </sst>
 </file>
@@ -380,119 +395,212 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="1" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>232</v>
       </c>
-      <c r="E2">
-        <f>D2*1.547</f>
-        <v>358.904</v>
-      </c>
       <c r="F2">
+        <f>E2/1.547</f>
+        <v>149.96767937944409</v>
+      </c>
+      <c r="G2">
         <v>30</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1.5</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>760</v>
       </c>
-      <c r="I2">
-        <f>H2*1.547</f>
-        <v>1175.72</v>
-      </c>
       <c r="J2">
+        <f>I2/1.547</f>
+        <v>491.27343244990305</v>
+      </c>
+      <c r="K2">
         <v>4.8499999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>232</v>
       </c>
-      <c r="E3">
-        <f>D3*1.547</f>
-        <v>358.904</v>
-      </c>
       <c r="F3">
+        <f t="shared" ref="F3:F5" si="0">E3/1.547</f>
+        <v>149.96767937944409</v>
+      </c>
+      <c r="G3">
         <v>30</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2.5</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>400</v>
       </c>
-      <c r="I3">
-        <f>H3*1.547</f>
-        <v>618.79999999999995</v>
-      </c>
       <c r="J3">
+        <f t="shared" ref="J3:J6" si="1">I3/1.547</f>
+        <v>258.56496444731738</v>
+      </c>
+      <c r="K3">
         <v>2.79</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>232</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>149.96767937944409</v>
+      </c>
+      <c r="G4">
+        <v>30</v>
+      </c>
+      <c r="H4">
+        <v>1.5</v>
+      </c>
+      <c r="I4">
+        <v>405</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>261.79702650290886</v>
+      </c>
+      <c r="K4">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>232</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>149.96767937944409</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <v>1.5</v>
+      </c>
+      <c r="I5">
+        <v>181</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>117.00064641241113</v>
+      </c>
+      <c r="K5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>2.5</v>
+      </c>
+      <c r="I6">
+        <v>41</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>26.502908855850034</v>
+      </c>
+      <c r="K6">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
   </sheetData>
